--- a/vocab/KORE121_ch6_2.xlsx
+++ b/vocab/KORE121_ch6_2.xlsx
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>어디에 가요?.mp3</t>
+          <t>어디에가요.mp3</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>학교에 가요..mp3</t>
+          <t>학교에가요.mp3</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>도서관에서 뭐 해요?.mp3</t>
+          <t>도서관에서뭐해요.mp3</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>도서관에서 숙제를 해요..mp3</t>
+          <t>도서관에서숙제를해요.mp3</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>케빈: 팅팅 씨, 어디에 가요?.mp3</t>
+          <t>케빈팅팅씨어디에가요.mp3</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>팅팅: 식당에 가요. 식당에서 친구하고 밥을 먹어요..mp3</t>
+          <t>팅팅식당에가요식당에서친구하고밥을먹어요.mp3</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>케빈: 아, 그래요?.mp3</t>
+          <t>케빈아그래요.mp3</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>팅팅: 케빈 씨는 오늘 뭐 해요?.mp3</t>
+          <t>팅팅케빈씨는오늘뭐해요.mp3</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>케빈: 저는 집에서 쉬어요..mp3</t>
+          <t>케빈저는집에서쉬어요.mp3</t>
         </is>
       </c>
     </row>
